--- a/public/ContohExcellOpenTalk.xlsx
+++ b/public/ContohExcellOpenTalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002EE0DD-58F1-44C7-A50C-8374FB9EF8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1241B1A-4556-4DB5-A4AB-18CF98DD3183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{D633EE17-DB69-44EC-B041-8AB6C52D5AEF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>id_live_account</t>
   </si>
@@ -65,6 +65,27 @@
   </si>
   <si>
     <t>siswa5@example.com</t>
+  </si>
+  <si>
+    <t>siswa6@example.com</t>
+  </si>
+  <si>
+    <t>siswa7@example.com</t>
+  </si>
+  <si>
+    <t>siswa8@example.com</t>
+  </si>
+  <si>
+    <t>siswa9@example.com</t>
+  </si>
+  <si>
+    <t>siswa10@example.com</t>
+  </si>
+  <si>
+    <t>siswa11@example.com</t>
+  </si>
+  <si>
+    <t>siswa12@example.com</t>
   </si>
 </sst>
 </file>
@@ -429,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A1100E-4077-45F6-AFCE-C25B20DE787B}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,13 +539,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <f>SUM(C4+1)</f>
+        <v>223117088</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:C11" si="0">SUM(C5+1)</f>
+        <v>223117089</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>223117090</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>223117091</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>223117092</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>223117093</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>223117094</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{D4EEE0DE-F7A3-4090-9750-703950824AD5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{F79B66D2-3319-4739-A120-ACE8D2D447E6}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{44D9653A-4A1F-4C2F-A3A0-5894573A5188}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{4CA273A7-A510-4A51-87BE-EBE6E749E834}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{7A9B5681-F2D1-4704-B7B5-56298BD2D6AF}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{849A9074-3C5D-4745-AE81-D6066BDC2CDD}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{EB2FDC66-B294-4ED8-B0AE-4331CE4B0D3B}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{91DE9FCE-17E9-4454-ACDF-5C802E5DD644}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{5D0E2FFF-B12B-4176-B7FA-C37269634EE5}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{89BFDB7E-F086-4631-9222-AB01F6276F81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/public/ContohExcellOpenTalk.xlsx
+++ b/public/ContohExcellOpenTalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1241B1A-4556-4DB5-A4AB-18CF98DD3183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4069E354-A16A-4DD0-9495-D0942C9D504B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{D633EE17-DB69-44EC-B041-8AB6C52D5AEF}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,7 +547,6 @@
         <v>10</v>
       </c>
       <c r="C5" s="3">
-        <f>SUM(C4+1)</f>
         <v>223117088</v>
       </c>
       <c r="D5" t="s">
@@ -565,7 +564,6 @@
         <v>11</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:C11" si="0">SUM(C5+1)</f>
         <v>223117089</v>
       </c>
       <c r="D6" t="s">
@@ -583,7 +581,6 @@
         <v>12</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
         <v>223117090</v>
       </c>
       <c r="D7" t="s">
@@ -601,7 +598,6 @@
         <v>13</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
         <v>223117091</v>
       </c>
       <c r="D8" t="s">
@@ -619,7 +615,6 @@
         <v>14</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
         <v>223117092</v>
       </c>
       <c r="D9" t="s">
@@ -637,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C9+1)</f>
         <v>223117093</v>
       </c>
       <c r="D10" t="s">
@@ -655,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C10+1)</f>
         <v>223117094</v>
       </c>
       <c r="D11" t="s">
